--- a/Data/collapsed database manual cases/morelos_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/morelos_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/morelos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_152DBCD08F79A8D366075C52F37BD2726AC289A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09C59A7A-8A8A-184C-A6BB-8B44B1E4FB8C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8606EA-C578-8342-9B5D-09962A71FB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19580" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="566">
   <si>
     <t>uniqueid</t>
   </si>
@@ -1601,6 +1601,126 @@
   </si>
   <si>
     <t>https://www.rompeviento.tv/el-congreso-de-morelos-biografias-ejemplares/</t>
+  </si>
+  <si>
+    <t>PAN_MC</t>
+  </si>
+  <si>
+    <t>ROBERTO ADRIAN CAZARES GONZALEZ</t>
+  </si>
+  <si>
+    <t>PRD_PSD</t>
+  </si>
+  <si>
+    <t>ABEL ESPIN GARCIA</t>
+  </si>
+  <si>
+    <t>PES</t>
+  </si>
+  <si>
+    <t>PT_MORENA_PES</t>
+  </si>
+  <si>
+    <t>FELIX SANCHEZ ESPINOZA</t>
+  </si>
+  <si>
+    <t>JESUS CORONA DAMIAN</t>
+  </si>
+  <si>
+    <t>JOSE LUIS GOMEZ BORBOLLA</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>ULISES PARDO BASTIDA</t>
+  </si>
+  <si>
+    <t>RAFAEL REYES REYES</t>
+  </si>
+  <si>
+    <t>JUAN ANGEL FLORES BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>MARIO OCAMPO OCAMPO</t>
+  </si>
+  <si>
+    <t>JAZMIN JUANA SOLANO LOPEZ</t>
+  </si>
+  <si>
+    <t>ROGELIO TORRES ORTEGA</t>
+  </si>
+  <si>
+    <t>ISRAEL GONZALEZ PEREZ</t>
+  </si>
+  <si>
+    <t>JORGE MALDONADO ORTIZ</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN POCHOTITLA TLALTZICAPA</t>
+  </si>
+  <si>
+    <t>ARTURO REYNALDO ABUNDEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>MIRNA CAROLINA RAMIREZ CARRANZA</t>
+  </si>
+  <si>
+    <t>MORENA_PANAL_PES</t>
+  </si>
+  <si>
+    <t>ROSBELIA BENITEZ BELLO</t>
+  </si>
+  <si>
+    <t>PAN_PH</t>
+  </si>
+  <si>
+    <t>JOSE LUIS URIOSTEGUI SALGADO</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>https://morelosrindecuentas.org.mx/abriendo-el-congreso/legislatura-lv/diputado/luz-dary-quevedo-maldonado</t>
+  </si>
+  <si>
+    <t>https://morelosrindecuentas.org.mx/abriendo-el-congreso/legislatura-lvi/diputado/francisco-erick-sanchez-zavala</t>
+  </si>
+  <si>
+    <t>http://www.sil.gobernacion.gob.mx/Librerias/pp_PerfilLegislador.php?SID=&amp;Referencia=2306346</t>
+  </si>
+  <si>
+    <t>https://www.proceso.com.mx/nacional/estados/2025/11/16/dan-82-anos-de-prision-alfonso-miranda-gallegos-exalcalde-exdiputado-de-amacuzac-morelos-362904.html</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo.php?fbid=1382736537194817&amp;set=pb.100063754508660.-2207520000&amp;type=3</t>
+  </si>
+  <si>
+    <t>https://www.elfinanciero.com.mx/estados/2025/05/17/quien-es-jesus-corona-damian-el-alcalde-de-cuautla-al-que-corrieron-de-un-evento-de-sheinbaum/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo.php?fbid=3883886248330906&amp;id=1042031029183123&amp;set=a.1050331781686381</t>
+  </si>
+  <si>
+    <t>https://morelosrindecuentas.org.mx/abriendo-el-congreso/legislatura-lvi/diputado/rafael-reyes-reyes</t>
+  </si>
+  <si>
+    <t>https://sil.gobernacion.gob.mx/Librerias/pp_PerfilLegislador.php?Referencia=9229381</t>
+  </si>
+  <si>
+    <t>https://morelosrindecuentas.org.mx/abriendo-el-congreso/legislatura-lvi/diputado/jazmin-juana-solano-lopez</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/mexico/2023/03/02/quien-era-israel-gonzalez-perez-el-ex-alcalde-de-tetela-del-volcan-que-fue-asesinado-en-morelos/</t>
+  </si>
+  <si>
+    <t>https://app.sabervotar.mx/candidato/juana-ocampo-dominguez/presidentes-municipales-alcaldes/morelos</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/rosbelia.benitezbello/photos</t>
+  </si>
+  <si>
+    <t>https://www.jornada.com.mx/notas/2023/05/26/estados/se-suman-a-morena-presidentes-municipales-opositores-de-morelos/</t>
   </si>
 </sst>
 </file>
@@ -1630,12 +1750,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1650,12 +1776,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1961,17 +2088,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S232"/>
+  <dimension ref="A1:S258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H203" sqref="H203"/>
+    <sheetView tabSelected="1" topLeftCell="E200" zoomScale="132" workbookViewId="0">
+      <selection activeCell="I262" sqref="I262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.1640625" bestFit="1" customWidth="1"/>
@@ -12543,6 +12670,496 @@
         <v>50</v>
       </c>
     </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>17021</v>
+      </c>
+      <c r="B233">
+        <v>2021</v>
+      </c>
+      <c r="E233" t="s">
+        <v>526</v>
+      </c>
+      <c r="F233" t="s">
+        <v>341</v>
+      </c>
+      <c r="H233" t="s">
+        <v>111</v>
+      </c>
+      <c r="I233" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>17030</v>
+      </c>
+      <c r="B234">
+        <v>2021</v>
+      </c>
+      <c r="E234" t="s">
+        <v>526</v>
+      </c>
+      <c r="F234" t="s">
+        <v>478</v>
+      </c>
+      <c r="H234" t="s">
+        <v>32</v>
+      </c>
+      <c r="I234" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>17032</v>
+      </c>
+      <c r="B235">
+        <v>2021</v>
+      </c>
+      <c r="E235" t="s">
+        <v>526</v>
+      </c>
+      <c r="F235" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>17013</v>
+      </c>
+      <c r="B236">
+        <v>2021</v>
+      </c>
+      <c r="E236" t="s">
+        <v>528</v>
+      </c>
+      <c r="F236" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>17015</v>
+      </c>
+      <c r="B237">
+        <v>2021</v>
+      </c>
+      <c r="E237" t="s">
+        <v>528</v>
+      </c>
+      <c r="F237" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>17029</v>
+      </c>
+      <c r="B238">
+        <v>2021</v>
+      </c>
+      <c r="E238" t="s">
+        <v>528</v>
+      </c>
+      <c r="F238" t="s">
+        <v>461</v>
+      </c>
+      <c r="H238" t="s">
+        <v>25</v>
+      </c>
+      <c r="I238" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>17001</v>
+      </c>
+      <c r="B239">
+        <v>2021</v>
+      </c>
+      <c r="E239" t="s">
+        <v>531</v>
+      </c>
+      <c r="F239" t="s">
+        <v>37</v>
+      </c>
+      <c r="H239" t="s">
+        <v>36</v>
+      </c>
+      <c r="I239" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>17002</v>
+      </c>
+      <c r="B240">
+        <v>2021</v>
+      </c>
+      <c r="E240" t="s">
+        <v>531</v>
+      </c>
+      <c r="F240" t="s">
+        <v>54</v>
+      </c>
+      <c r="H240" t="s">
+        <v>530</v>
+      </c>
+      <c r="I240" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>17003</v>
+      </c>
+      <c r="B241">
+        <v>2021</v>
+      </c>
+      <c r="E241" t="s">
+        <v>531</v>
+      </c>
+      <c r="F241" t="s">
+        <v>532</v>
+      </c>
+      <c r="H241" t="s">
+        <v>535</v>
+      </c>
+      <c r="I241" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>17006</v>
+      </c>
+      <c r="B242">
+        <v>2021</v>
+      </c>
+      <c r="E242" t="s">
+        <v>531</v>
+      </c>
+      <c r="F242" t="s">
+        <v>533</v>
+      </c>
+      <c r="H242" t="s">
+        <v>535</v>
+      </c>
+      <c r="I242" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>17007</v>
+      </c>
+      <c r="B243">
+        <v>2021</v>
+      </c>
+      <c r="E243" t="s">
+        <v>531</v>
+      </c>
+      <c r="F243" t="s">
+        <v>534</v>
+      </c>
+      <c r="H243" t="s">
+        <v>535</v>
+      </c>
+      <c r="I243" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>17009</v>
+      </c>
+      <c r="B244">
+        <v>2021</v>
+      </c>
+      <c r="E244" t="s">
+        <v>531</v>
+      </c>
+      <c r="F244" t="s">
+        <v>536</v>
+      </c>
+      <c r="H244" t="s">
+        <v>535</v>
+      </c>
+      <c r="I244" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>17011</v>
+      </c>
+      <c r="B245">
+        <v>2021</v>
+      </c>
+      <c r="E245" t="s">
+        <v>531</v>
+      </c>
+      <c r="F245" t="s">
+        <v>537</v>
+      </c>
+      <c r="H245" t="s">
+        <v>535</v>
+      </c>
+      <c r="I245" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>17012</v>
+      </c>
+      <c r="B246">
+        <v>2021</v>
+      </c>
+      <c r="E246" t="s">
+        <v>531</v>
+      </c>
+      <c r="F246" t="s">
+        <v>538</v>
+      </c>
+      <c r="H246" t="s">
+        <v>535</v>
+      </c>
+      <c r="I246" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>17017</v>
+      </c>
+      <c r="B247">
+        <v>2021</v>
+      </c>
+      <c r="E247" t="s">
+        <v>531</v>
+      </c>
+      <c r="F247" t="s">
+        <v>539</v>
+      </c>
+      <c r="H247" t="s">
+        <v>535</v>
+      </c>
+      <c r="I247" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>17018</v>
+      </c>
+      <c r="B248">
+        <v>2021</v>
+      </c>
+      <c r="E248" t="s">
+        <v>531</v>
+      </c>
+      <c r="F248" t="s">
+        <v>540</v>
+      </c>
+      <c r="H248" t="s">
+        <v>535</v>
+      </c>
+      <c r="I248" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>17020</v>
+      </c>
+      <c r="B249">
+        <v>2021</v>
+      </c>
+      <c r="E249" t="s">
+        <v>531</v>
+      </c>
+      <c r="F249" t="s">
+        <v>541</v>
+      </c>
+      <c r="H249" t="s">
+        <v>535</v>
+      </c>
+      <c r="I249" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>17022</v>
+      </c>
+      <c r="B250">
+        <v>2021</v>
+      </c>
+      <c r="E250" t="s">
+        <v>531</v>
+      </c>
+      <c r="F250" t="s">
+        <v>542</v>
+      </c>
+      <c r="H250" t="s">
+        <v>535</v>
+      </c>
+      <c r="I250" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>17025</v>
+      </c>
+      <c r="B251">
+        <v>2021</v>
+      </c>
+      <c r="E251" t="s">
+        <v>531</v>
+      </c>
+      <c r="F251" t="s">
+        <v>543</v>
+      </c>
+      <c r="H251" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>17026</v>
+      </c>
+      <c r="B252">
+        <v>2021</v>
+      </c>
+      <c r="E252" t="s">
+        <v>531</v>
+      </c>
+      <c r="F252" t="s">
+        <v>544</v>
+      </c>
+      <c r="H252" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>17004</v>
+      </c>
+      <c r="B253">
+        <v>2021</v>
+      </c>
+      <c r="E253" t="s">
+        <v>531</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H253" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>17031</v>
+      </c>
+      <c r="B254">
+        <v>2021</v>
+      </c>
+      <c r="E254" t="s">
+        <v>531</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H254" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>17018</v>
+      </c>
+      <c r="B255">
+        <v>2024</v>
+      </c>
+      <c r="E255" t="s">
+        <v>547</v>
+      </c>
+      <c r="F255" t="s">
+        <v>302</v>
+      </c>
+      <c r="H255" t="s">
+        <v>535</v>
+      </c>
+      <c r="I255" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>17021</v>
+      </c>
+      <c r="B256">
+        <v>2024</v>
+      </c>
+      <c r="E256" t="s">
+        <v>547</v>
+      </c>
+      <c r="F256" t="s">
+        <v>548</v>
+      </c>
+      <c r="H256" t="s">
+        <v>535</v>
+      </c>
+      <c r="I256" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>17007</v>
+      </c>
+      <c r="B257">
+        <v>2024</v>
+      </c>
+      <c r="E257" t="s">
+        <v>549</v>
+      </c>
+      <c r="F257" t="s">
+        <v>550</v>
+      </c>
+      <c r="H257" t="s">
+        <v>32</v>
+      </c>
+      <c r="I257" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>17014</v>
+      </c>
+      <c r="B258">
+        <v>2024</v>
+      </c>
+      <c r="E258" t="s">
+        <v>111</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H258" t="s">
+        <v>535</v>
+      </c>
+      <c r="I258" t="s">
+        <v>565</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S232" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">
